--- a/biology/Zoologie/Euselasia_euodias/Euselasia_euodias.xlsx
+++ b/biology/Zoologie/Euselasia_euodias/Euselasia_euodias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia euodias est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Euselasia.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euselasia euodias a été décrit par William Chapman Hewitson en 1856 sous le nom d' Eurygona euodias[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia euodias a été décrit par William Chapman Hewitson en 1856 sous le nom d' Eurygona euodias.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Euselasia euodias euodias au Brésil
-Euselasia euodias talidiman Brévignon et Gallard, 1992; présent en Guyane[1].</t>
+Euselasia euodias talidiman Brévignon et Gallard, 1992; présent en Guyane.</t>
         </is>
       </c>
     </row>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia euodias est de couleur noire. L'autre face est de couleur ocre marron roux suffusé et rayé de noir avec une large bande submarginale d'ocelles noirs.
 </t>
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,12 +650,49 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Euselasia euodias est présent en Guyane et au Brésil[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia euodias est présent en Guyane et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euselasia_euodias</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_euodias</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
